--- a/docs/shrcore/shr-core-Composition-model.xlsx
+++ b/docs/shrcore/shr-core-Composition-model.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$28</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="124">
   <si>
     <t>Path</t>
   </si>
@@ -401,9 +401,6 @@
   </si>
   <si>
     <t>Additional information to support this request.</t>
-  </si>
-  <si>
-    <t>shr-core-Composition-model.eventContext.identifier</t>
   </si>
   <si>
     <t>shr-core-Composition-model.section</t>
@@ -562,7 +559,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ29"/>
+  <dimension ref="A1:AI28"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3238,7 +3235,7 @@
         <v>37</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>36</v>
@@ -3250,13 +3247,13 @@
         <v>36</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>58</v>
+        <v>122</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3322,105 +3319,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" hidden="true">
-      <c r="A29" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="G29" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="J29" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="K29" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P29" s="2"/>
-      <c r="Q29" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R29" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S29" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T29" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AI29">
+  <autoFilter ref="A1:AI28">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -3430,7 +3330,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI28">
+  <conditionalFormatting sqref="A2:AI27">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
